--- a/data/trans_bre/P20-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.186602533665772</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9193581692847563</v>
+        <v>0.919358169284756</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.293226942981919</v>
+        <v>-2.226757987005152</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.079218870913567</v>
+        <v>-0.7351399886726178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.637405760506154</v>
+        <v>1.692619052618864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3658236251929828</v>
+        <v>0.1451120401995281</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5105872111548324</v>
+        <v>-0.4565782350961166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1168654073861998</v>
+        <v>-0.06733412258438996</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1539807244803623</v>
+        <v>0.1458859082433637</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03531340948214153</v>
+        <v>0.008521644945749907</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.952193546079027</v>
+        <v>5.001142663296517</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.01565594264912</v>
+        <v>9.920867311028768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.69614285627028</v>
+        <v>11.06858234152199</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.371437835763295</v>
+        <v>6.205470168207396</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.016593661116242</v>
+        <v>2.455530499951716</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.594265014225578</v>
+        <v>1.568546326850295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.067733315481743</v>
+        <v>2.860165579356503</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.61350541083757</v>
+        <v>2.681301123968816</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8249603479217736</v>
+        <v>0.8774394829452659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8707250191515772</v>
+        <v>-1.260377082977207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2500974651272203</v>
+        <v>0.001493952034605757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.20595704130816</v>
+        <v>-6.459246937808144</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1022894132013225</v>
+        <v>0.1063280098746853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1053902417279451</v>
+        <v>-0.1167858547879481</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07126955571457891</v>
+        <v>-0.0214009993932272</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6311501229899606</v>
+        <v>-0.6392709695994284</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.339816569651818</v>
+        <v>7.37041848909222</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.382342658097151</v>
+        <v>6.945437708186507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.589565353984297</v>
+        <v>5.698795330488124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.3647973265331872</v>
+        <v>-0.1876387033502696</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.957640018739747</v>
+        <v>1.971007449885035</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.202361749372135</v>
+        <v>1.105174754344086</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.846283214042898</v>
+        <v>2.027016277350833</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01630545026926825</v>
+        <v>0.005064745389458543</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4063674091673652</v>
+        <v>-0.5378074633491625</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.6313308056485</v>
+        <v>-2.108103782442717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.940315358690426</v>
+        <v>3.681452061977189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.13627750280418</v>
+        <v>-2.840736219047504</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2347812496869247</v>
+        <v>-0.2344542206167298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1638223105804446</v>
+        <v>-0.2315985190555422</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8488396044345059</v>
+        <v>0.7939806706894461</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2957781568286226</v>
+        <v>-0.2951440012375103</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.458792446113118</v>
+        <v>5.509743281613884</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.517471649747878</v>
+        <v>7.039750167343101</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.88153658730957</v>
+        <v>10.74710170470395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.598093361852614</v>
+        <v>4.818572316757947</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.033120691813605</v>
+        <v>5.249958441079636</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.355504436811065</v>
+        <v>1.283668937234632</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.49585190939585</v>
+        <v>6.816777139187773</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7604398992390841</v>
+        <v>0.7224724206048092</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.6506080971743156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.644547455085934</v>
+        <v>1.644547455085937</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.550164983137449</v>
@@ -949,7 +949,7 @@
         <v>0.08579047785228498</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2219051276179023</v>
+        <v>0.2219051276179027</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.802722868134029</v>
+        <v>0.732795663892559</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7977382604993557</v>
+        <v>0.6652557621958441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.76868861121196</v>
+        <v>-3.478214344621212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.321568127342114</v>
+        <v>-3.398389842812754</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1570683947778534</v>
+        <v>0.09642721309968622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09189922727112496</v>
+        <v>0.06388925530331314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3784087147872812</v>
+        <v>-0.3566374577837461</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.352562313949187</v>
+        <v>-0.3660610990907024</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.89273506900404</v>
+        <v>6.011961863758128</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.611780736745342</v>
+        <v>8.100700019960145</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.379955254517671</v>
+        <v>4.237616706052838</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.759289984648127</v>
+        <v>6.710609053253139</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.840542003426899</v>
+        <v>5.260072560800588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.378189826304773</v>
+        <v>2.073363373001314</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7674993957557306</v>
+        <v>0.7328256444105641</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.320293367205944</v>
+        <v>1.316608985925414</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.039629579117992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.747900608443907</v>
+        <v>1.747900608443906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4131694707550988</v>
@@ -1049,7 +1049,7 @@
         <v>0.2533750116161247</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.792988593785185</v>
+        <v>0.7929885937851848</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.428168377098574</v>
+        <v>-2.32062040481373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.650260188865913</v>
+        <v>-1.49038025505323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.159796861914074</v>
+        <v>-2.885182623222888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.14138255110448</v>
+        <v>-0.7756026421317295</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3023159324371251</v>
+        <v>-0.3199793436599745</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2206233539580546</v>
+        <v>-0.2174966310009587</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.555920581430981</v>
+        <v>-0.5002150758901971</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3691061976763813</v>
+        <v>-0.2954178889688283</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.387900425565698</v>
+        <v>7.621628217137305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.812396034147536</v>
+        <v>9.218630959749126</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.453940282547701</v>
+        <v>5.580637161994583</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.885723547350358</v>
+        <v>3.85940028953579</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.085231862008469</v>
+        <v>1.986660177463218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.171829289087605</v>
+        <v>2.416982332404149</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.49647393174455</v>
+        <v>2.715596540935387</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.551771147985632</v>
+        <v>3.474273010475137</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.114855791339266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5063837020385389</v>
+        <v>-0.5063837020385403</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.844089775953577</v>
@@ -1149,7 +1149,7 @@
         <v>0.4271860559299164</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.05650224424665938</v>
+        <v>-0.05650224424665953</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.066532352161266</v>
+        <v>2.930307583902375</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.6470123773149354</v>
+        <v>-0.7391651546088408</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.888578750830411</v>
+        <v>-2.154176197685819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.242556423085675</v>
+        <v>-4.138881744429057</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5265577263405203</v>
+        <v>0.4020152757788357</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1247667001702455</v>
+        <v>-0.1156844580283943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2070469090027446</v>
+        <v>-0.2527183701868462</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4067140004960966</v>
+        <v>-0.3793646593129457</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.72278098948864</v>
+        <v>11.80433792160291</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.619180704561295</v>
+        <v>8.687807715042393</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.067897784655658</v>
+        <v>7.951125658711504</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.236618120320804</v>
+        <v>3.378908958832334</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.458790691349446</v>
+        <v>4.919440679017927</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.264925401125391</v>
+        <v>2.47141004192299</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.702699351548396</v>
+        <v>1.667289788937399</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4691425708147552</v>
+        <v>0.4756847367105931</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3638077033352712</v>
+        <v>-0.465983316654515</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8219078389492278</v>
+        <v>1.01778270604198</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5948494248929971</v>
+        <v>0.3013210363354217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3683655851995543</v>
+        <v>-0.3023000056161918</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.05065367542192153</v>
+        <v>-0.08193746677035475</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.124510613875855</v>
+        <v>0.1458401581990527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06600079367736297</v>
+        <v>0.02300780112360428</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05904468211898893</v>
+        <v>-0.04683918628180279</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.639959238980031</v>
+        <v>5.439592711600667</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.638490641320245</v>
+        <v>6.592107293599703</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.733093060029754</v>
+        <v>5.778419403202781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.90873605907531</v>
+        <v>5.044443348318786</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.314963131860553</v>
+        <v>1.186455662555025</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.954686840783146</v>
+        <v>1.897263324134482</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.980151289527342</v>
+        <v>2.033258660959482</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.046603132393316</v>
+        <v>1.096353560054401</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.40890232258202</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.6174109196177218</v>
+        <v>0.6174109196177224</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8643730748918985</v>
@@ -1349,7 +1349,7 @@
         <v>0.3071735221773778</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1887797131507049</v>
+        <v>0.1887797131507052</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8980549803328051</v>
+        <v>0.789001748460175</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.04382187631907686</v>
+        <v>0.1492418970512151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.9583293432806801</v>
+        <v>-0.8298297455529275</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.159431619363328</v>
+        <v>-1.22611525775438</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1965312605694704</v>
+        <v>0.1652851222456604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.009803016237379747</v>
+        <v>0.005585757970940979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1646891583414828</v>
+        <v>-0.1504822957056705</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2822408164828226</v>
+        <v>-0.2981637593338913</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.57690297224814</v>
+        <v>5.380869943324053</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.899313564511422</v>
+        <v>5.174862911901438</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.786387199772584</v>
+        <v>3.72573015812348</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.419653048941872</v>
+        <v>2.350331582712485</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.106880363630401</v>
+        <v>2.120588721026447</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.329459103768204</v>
+        <v>1.358016660993083</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.105433118197155</v>
+        <v>1.057470799067835</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9485599028218438</v>
+        <v>1.010181732786269</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.983126965917824</v>
+        <v>2.227881426608934</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.199107104687716</v>
+        <v>2.055173582542575</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.735791737262187</v>
+        <v>1.755822430844004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3881148618268761</v>
+        <v>-0.415760886491467</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4218638191572202</v>
+        <v>0.4768149060760889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3316934314949568</v>
+        <v>0.3010210038434271</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3242079385881628</v>
+        <v>0.3213538115475555</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.06050567122452363</v>
+        <v>-0.06419768240920039</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.265884818084271</v>
+        <v>4.435352910024273</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.81303009525502</v>
+        <v>4.78805875084992</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.193801161663243</v>
+        <v>4.142630302662547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.890042234232261</v>
+        <v>1.910414417974372</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.173967434878106</v>
+        <v>1.214121883545566</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8810778316629703</v>
+        <v>0.8788365572312932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.002229015490472</v>
+        <v>0.9493041744506555</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.3695013053898449</v>
+        <v>0.3667503308151954</v>
       </c>
     </row>
     <row r="31">
